--- a/src/cloud/tests/GL/GL_USA/EnteringJournalsManuallyITC_Test.xlsx
+++ b/src/cloud/tests/GL/GL_USA/EnteringJournalsManuallyITC_Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbethi\Documents\GitHub\SeleniumFramework_2021B\src\cloud\tests\GL\GL_USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC1B438-2280-47DA-A2F7-88188DAF5E4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26425B6A-3823-4B4B-A912-A8CD475B8859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Execute</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Journals</t>
   </si>
   <si>
-    <t>01.114.100101.01.303.11000.000000.000000</t>
-  </si>
-  <si>
     <t>Account2</t>
   </si>
   <si>
@@ -101,6 +98,42 @@
   </si>
   <si>
     <t>Navigate</t>
+  </si>
+  <si>
+    <t>JournalBatch</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>AccPeriod</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>JournalDescription</t>
+  </si>
+  <si>
+    <t>Ledger</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>USD US Dollar</t>
+  </si>
+  <si>
+    <t>ARS Argentine Peso</t>
+  </si>
+  <si>
+    <t>35.114.100101.01.303.11000.000000.000000</t>
+  </si>
+  <si>
+    <t>JournalBatch&lt;UID&gt;</t>
+  </si>
+  <si>
+    <t>Journal&lt;UID&gt;</t>
   </si>
 </sst>
 </file>
@@ -535,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,12 +582,12 @@
     <col min="6" max="6" width="0.81640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.7265625" style="3" customWidth="1"/>
     <col min="8" max="8" width="0.81640625" style="2" customWidth="1"/>
-    <col min="9" max="15" width="20.7265625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="0.81640625" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="3"/>
+    <col min="9" max="22" width="20.7265625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="0.81640625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,19 +597,26 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="G1" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -590,28 +630,49 @@
         <v>8</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="P2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="T2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -619,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
@@ -628,35 +689,64 @@
         <v>15</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="P3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="S3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="P4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C5" s="5"/>
       <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I1:V1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://rws-fap1313-fs.oracledemos.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
